--- a/casos_por_tipo.xlsx
+++ b/casos_por_tipo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +463,7 @@
         <v>1208</v>
       </c>
       <c r="D2" t="n">
-        <v>73.75</v>
+        <v>73.84</v>
       </c>
     </row>
     <row r="3">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D4" t="n">
-        <v>23.44</v>
+        <v>23.35</v>
       </c>
     </row>
     <row r="5">

--- a/casos_por_tipo.xlsx
+++ b/casos_por_tipo.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1208</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>73.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>23.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>5805</v>
       </c>
       <c r="D5" t="n">
-        <v>0.92</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/casos_por_tipo.xlsx
+++ b/casos_por_tipo.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4676</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80.55</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1066</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>18.36</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5805</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>

--- a/casos_por_tipo.xlsx
+++ b/casos_por_tipo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/casos_por_tipo.xlsx
+++ b/casos_por_tipo.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4676</v>
+        <v>4743</v>
       </c>
       <c r="D2" t="n">
-        <v>80.55</v>
+        <v>81.70999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1066</v>
+        <v>1028</v>
       </c>
       <c r="D3" t="n">
-        <v>18.36</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/casos_por_tipo.xlsx
+++ b/casos_por_tipo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
